--- a/Atomic-Bond/Datas/correlation_data.xlsx
+++ b/Atomic-Bond/Datas/correlation_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,30 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>('C', 'O', 1)</t>
+          <t>('N', 'H', 1)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>('N', 'H', 1)</t>
+          <t>('N', 'C', 1)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>('N', 'C', 1)</t>
+          <t>('N', 'C', 1.5)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>('N', 'C', 1.5)</t>
+          <t>('C', 'C', 1)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>('C', 'C', 1)</t>
+          <t>('O', 'C', 2)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>('C', 'C', 1.5)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>('C', 'H', 1)</t>
         </is>
@@ -473,196 +468,150 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('C', 'O', 1)</t>
+          <t>('N', 'H', 1)</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2534671486530152</v>
+        <v>0.2249942454118232</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2594834597690311</v>
+        <v>-0.002668604498168545</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.1574424998130957</v>
+        <v>-0.09369341519563638</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02492261037600237</v>
+        <v>-0.08024191947077218</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0922893469042573</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0481065885196288</v>
+        <v>-0.01156192303401701</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('N', 'H', 1)</t>
+          <t>('N', 'C', 1)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2534671486530152</v>
+        <v>0.2249942454118232</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3498292450425455</v>
+        <v>-0.04483851656404862</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01270369224402493</v>
+        <v>0.09596840627207515</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.09530669493326441</v>
+        <v>0.0246666227358927</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.04414061637233536</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-0.007131441778631478</v>
+        <v>0.479748131896182</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('N', 'C', 1)</t>
+          <t>('N', 'C', 1.5)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.2594834597690311</v>
+        <v>-0.002668604498168545</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3498292450425455</v>
+        <v>-0.04483851656404862</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0715193681711485</v>
+        <v>-0.1231848758397225</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07915741974210411</v>
+        <v>-0.00523043231939607</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.001171669899447543</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.4238112003553116</v>
+        <v>-0.08145096458325664</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('N', 'C', 1.5)</t>
+          <t>('C', 'C', 1)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1574424998130957</v>
+        <v>-0.09369341519563638</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01270369224402493</v>
+        <v>0.09596840627207515</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.0715193681711485</v>
+        <v>-0.1231848758397225</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1499774260584152</v>
+        <v>0.05374677094431899</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06808736467598468</v>
-      </c>
-      <c r="H5" t="n">
-        <v>-0.08751088935032547</v>
+        <v>0.6772699216928236</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('C', 'C', 1)</t>
+          <t>('O', 'C', 2)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02492261037600237</v>
+        <v>-0.08024191947077218</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.09530669493326441</v>
+        <v>0.0246666227358927</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07915741974210411</v>
+        <v>-0.00523043231939607</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.1499774260584152</v>
+        <v>0.05374677094431899</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3013382128465585</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.6776551664807249</v>
+        <v>-0.09027075214462901</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('C', 'C', 1.5)</t>
+          <t>('C', 'H', 1)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0922893469042573</v>
+        <v>-0.01156192303401701</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.04414061637233536</v>
+        <v>0.479748131896182</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.001171669899447543</v>
+        <v>-0.08145096458325664</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06808736467598468</v>
+        <v>0.6772699216928236</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3013382128465585</v>
+        <v>-0.09027075214462901</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-0.02296300676555239</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>('C', 'H', 1)</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.0481065885196288</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-0.007131441778631478</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.4238112003553116</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-0.08751088935032547</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.6776551664807249</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-0.02296300676555239</v>
-      </c>
-      <c r="H8" t="n">
         <v>1</v>
       </c>
     </row>
